--- a/medicine/Pharmacie/Cholagogue/Cholagogue.xlsx
+++ b/medicine/Pharmacie/Cholagogue/Cholagogue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une substance cholagogue (aussi appelée cholécystokinétique) a pour effet de faciliter l'évacuation de la bile vers l'intestin en provoquant une chasse biliaire à partir de la vésicule qui se vide en se contractant[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une substance cholagogue (aussi appelée cholécystokinétique) a pour effet de faciliter l'évacuation de la bile vers l'intestin en provoquant une chasse biliaire à partir de la vésicule qui se vide en se contractant.
 Le terme vient du grec ancien χολή / kholê, « bile » et ἀγωγός / agôgos de ἄγειν / agein, « qui conduit », ce mot signifie donc étymologiquement « qui conduit la bile ».
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Cholagogues végétaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Immortelle commune (Helichrysum stoechas)
 Eupatoire chanvrine (Eupatorium cannabinum)
@@ -550,7 +564,9 @@
           <t>Principes actifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sorbitol
 Boldine</t>
